--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>53.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -650,25 +710,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8574</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -762,26 +862,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -818,26 +938,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5807</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8667</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.26</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.11</v>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.86</v>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2706,2391 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7525</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3229</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4989,7 +4990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5000,17 +5001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5020,14 +5041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.5</v>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5036,14 +5079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.26</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5052,14 +5117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.11</v>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5068,14 +5155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.86</v>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5084,13 +5193,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5350,7 +5351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5361,17 +5362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5381,14 +5402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.66</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5397,14 +5440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.5</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5413,14 +5478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.26</v>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5429,14 +5516,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.11</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5445,14 +5554,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.86</v>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6791</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5461,13 +5592,1585 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>16.95</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>5.66</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>16.5</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>6.26</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>14.11</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>7.86</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -600,6 +617,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0517</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +4428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5093,7 +6876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5643,7 +7426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6649,7 +8432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7085,7 +8868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
+++ b/数据整理/stocks/A股/上证主板/600499-科达制造.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>16.95</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>5.66</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>6.26</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>14.11</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>7.86</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -616,7 +633,803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2382,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4068,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4428,7 +5241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6876,7 +7689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7426,7 +8239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8432,7 +9245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8866,98 +9679,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>